--- a/data/trans_bre/P25A_10_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>347,7%</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>146,09%</t>
+          <t>359,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>104,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165,37%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>186,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>378,75%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,2</t>
+          <t>1,84; 5,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,17</t>
+          <t>-0,29; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,4</t>
+          <t>0,63; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 11,68</t>
+          <t>1,61; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,54; 1233,55</t>
+          <t>2,9; 7,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 394,87</t>
+          <t>4,22; 9,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 440,89</t>
+          <t>71,76; 1093,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 108,15</t>
+          <t>-25,25; 369,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 493,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 577,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76,09; 411,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>144,13; 1003,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>245,34%</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>222,74%</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>160,5%</t>
+          <t>277,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>255,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>204,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>301,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>507,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,48</t>
+          <t>1,15; 6,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,14</t>
+          <t>0,99; 4,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,78</t>
+          <t>0,59; 6,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 35,62</t>
+          <t>2,45; 10,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,44; 888,92</t>
+          <t>-0,59; 8,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 755,47</t>
+          <t>4,4; 10,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 718,61</t>
+          <t>34,32; 867,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 423,33</t>
+          <t>41,23; 911,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 882,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33,49; 1321,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 290,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>137,85; 1728,75</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1543,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,89%</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>927,66%</t>
+          <t>963,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>55,18%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>911,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>631,23%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 18,98</t>
+          <t>2,91; 13,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,09</t>
+          <t>-2,75; 7,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,54</t>
+          <t>2,07; 9,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +1025,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 448,94</t>
+          <t>1,65; 11,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-56,43; 392,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -925,37 +1077,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>387,09%</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,3%</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>193,88%</t>
+          <t>375,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>126,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>224,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>242,24%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>148,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>445,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,49</t>
+          <t>2,68; 5,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,1</t>
+          <t>0,77; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,7</t>
+          <t>1,59; 4,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 14,12</t>
+          <t>2,16; 5,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>176,52; 813,63</t>
+          <t>2,61; 6,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 282,09</t>
+          <t>5,11; 9,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,18; 432,77</t>
+          <t>157,96; 843,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 105,23</t>
+          <t>25,65; 294,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80,62; 460,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>94,62; 536,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60,68; 281,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>231,75; 845,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_10_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>359,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>104,51%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>165,37%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>224,34%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>186,29%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>378,75%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.355228809689431</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.669677985742229</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.906693142855889</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.044860971915368</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.072207049240096</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.746430938378055</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.53482163564889</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.085198642944767</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.507349762636865</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.243362750764435</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.867320019712607</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>3.835321695473219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 5,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 3,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 4,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 7,27</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 9,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>71,76; 1093,27</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-25,25; 369,84</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>24,27; 493,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>65,11; 577,54</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>76,09; 411,37</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>144,13; 1003,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.732187399407799</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2885934541139868</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.5295451224796229</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.614652960191942</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>2.897748568097422</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>4.219577665037798</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.6111739023548128</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2788859938004029</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1747101786551311</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.6510634862801755</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.7604959844911445</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>1.380653750380846</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.211337420503098</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.228858177021884</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.667028814398472</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.791269231504721</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.241357194770607</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.893076489797005</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>10.57841931725115</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.810438198160295</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.779243083987232</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.77538690705176</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>4.069704294449347</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>10.03632325479239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>277,61%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>255,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>204,01%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>301,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>80,76%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>507,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 6,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 4,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 6,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 10,61</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 8,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 10,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>34,32; 867,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>41,23; 911,02</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>15,24; 882,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>33,49; 1321,91</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-13,37; 290,95</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>137,85; 1728,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.979763290354334</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.657129659073113</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.718627163831969</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.64923613313675</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.733444744870569</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.579205815890535</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.348249118321747</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.718100549565901</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.092875097594469</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>3.013435345046604</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7894132112175885</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>5.240072863166794</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>963,98%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>55,18%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>911,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>631,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8252336769987217</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.073300151293234</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.6530514193637011</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.452477983153575</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6450749657634407</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>4.507890141734492</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2311401911905537</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4340745637619157</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.197821177083251</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.3349116374873846</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1345171226774624</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>1.386095868924212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 13,98</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 7,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 9,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 11,14</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-56,43; 392,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.443325691063137</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.510049833056052</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.516748901189867</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.60687553092401</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.807821291143807</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.23507469895437</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.38634592974031</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>9.828687928237038</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>8.228577208306238</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>13.21912859663544</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.94248740479511</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>17.03571578188085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,75</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,82</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>375,33%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>126,65%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>224,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>242,24%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>148,41%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>445,67%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.051415120846277</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.07031695560394</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.081328613037157</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>5.570109325814935</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>14.19347407700333</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5755158928051438</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>9.064887309712653</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>7.123718281645513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 5,55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 3,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 4,41</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 5,31</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 6,78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 9,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>157,96; 843,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>25,65; 294,54</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>80,62; 460,42</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>94,62; 536,17</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>60,68; 281,96</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>231,75; 845,52</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.12042512441925</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.500707688749227</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.059390153556079</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>1.84952576110343</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5490495946338518</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.91043757418755</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.956446508699117</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.485960615070258</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>12.03019857026104</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>4.086669410768881</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.856231319311535</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.083735173698933</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.585120825587279</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.588194810191188</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.733035453349857</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.946357139514353</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>3.71304139300096</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.331326589434914</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.168299838318617</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.422446301738163</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.476826954897111</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>4.589459750806457</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.59836656706133</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.8421785809798812</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.553318520712083</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.157294506482644</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.591953500901107</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>5.251724221098113</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.509034416174872</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2666529762113173</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.7599800890392432</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.9461956997764388</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.6071698378083543</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>2.444470595791794</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.389440767705313</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.398066223644199</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.198662169476672</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.313746291791269</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.771563736352516</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.173614267448739</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>8.533936749075071</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.038561767723324</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.421374944236781</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>5.361672439543234</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.830206913826132</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>8.842251322260317</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1165,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
